--- a/result/output_6000.xlsx
+++ b/result/output_6000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="784">
   <si>
     <t>TotalTime</t>
   </si>
@@ -1150,6 +1150,414 @@
     <t>936809</t>
   </si>
   <si>
+    <t>CPURatio</t>
+  </si>
+  <si>
+    <t>0.381081</t>
+  </si>
+  <si>
+    <t>0.310378</t>
+  </si>
+  <si>
+    <t>0.289443</t>
+  </si>
+  <si>
+    <t>0.988020</t>
+  </si>
+  <si>
+    <t>0.976441</t>
+  </si>
+  <si>
+    <t>0.956514</t>
+  </si>
+  <si>
+    <t>0.990335</t>
+  </si>
+  <si>
+    <t>0.985218</t>
+  </si>
+  <si>
+    <t>0.976825</t>
+  </si>
+  <si>
+    <t>0.672867</t>
+  </si>
+  <si>
+    <t>0.654241</t>
+  </si>
+  <si>
+    <t>0.606011</t>
+  </si>
+  <si>
+    <t>0.982962</t>
+  </si>
+  <si>
+    <t>0.966495</t>
+  </si>
+  <si>
+    <t>0.932836</t>
+  </si>
+  <si>
+    <t>0.985746</t>
+  </si>
+  <si>
+    <t>0.972321</t>
+  </si>
+  <si>
+    <t>0.946540</t>
+  </si>
+  <si>
+    <t>0.194563</t>
+  </si>
+  <si>
+    <t>0.189521</t>
+  </si>
+  <si>
+    <t>0.180181</t>
+  </si>
+  <si>
+    <t>0.971110</t>
+  </si>
+  <si>
+    <t>0.952435</t>
+  </si>
+  <si>
+    <t>0.908902</t>
+  </si>
+  <si>
+    <t>0.980966</t>
+  </si>
+  <si>
+    <t>0.962707</t>
+  </si>
+  <si>
+    <t>0.939743</t>
+  </si>
+  <si>
+    <t>0.555600</t>
+  </si>
+  <si>
+    <t>0.485751</t>
+  </si>
+  <si>
+    <t>0.371178</t>
+  </si>
+  <si>
+    <t>0.902527</t>
+  </si>
+  <si>
+    <t>0.822368</t>
+  </si>
+  <si>
+    <t>0.697026</t>
+  </si>
+  <si>
+    <t>0.971188</t>
+  </si>
+  <si>
+    <t>0.970245</t>
+  </si>
+  <si>
+    <t>0.968365</t>
+  </si>
+  <si>
+    <t>0.439349</t>
+  </si>
+  <si>
+    <t>0.389370</t>
+  </si>
+  <si>
+    <t>0.289728</t>
+  </si>
+  <si>
+    <t>0.935367</t>
+  </si>
+  <si>
+    <t>0.878894</t>
+  </si>
+  <si>
+    <t>0.784201</t>
+  </si>
+  <si>
+    <t>0.964951</t>
+  </si>
+  <si>
+    <t>0.961606</t>
+  </si>
+  <si>
+    <t>0.934535</t>
+  </si>
+  <si>
+    <t>0.355240</t>
+  </si>
+  <si>
+    <t>0.348896</t>
+  </si>
+  <si>
+    <t>0.298544</t>
+  </si>
+  <si>
+    <t>0.985422</t>
+  </si>
+  <si>
+    <t>0.973248</t>
+  </si>
+  <si>
+    <t>0.949782</t>
+  </si>
+  <si>
+    <t>0.325141</t>
+  </si>
+  <si>
+    <t>0.318145</t>
+  </si>
+  <si>
+    <t>0.265272</t>
+  </si>
+  <si>
+    <t>0.984002</t>
+  </si>
+  <si>
+    <t>0.969981</t>
+  </si>
+  <si>
+    <t>0.943105</t>
+  </si>
+  <si>
+    <t>0.987327</t>
+  </si>
+  <si>
+    <t>0.980191</t>
+  </si>
+  <si>
+    <t>0.966224</t>
+  </si>
+  <si>
+    <t>0.454970</t>
+  </si>
+  <si>
+    <t>0.443995</t>
+  </si>
+  <si>
+    <t>0.390853</t>
+  </si>
+  <si>
+    <t>0.981656</t>
+  </si>
+  <si>
+    <t>0.965211</t>
+  </si>
+  <si>
+    <t>0.933920</t>
+  </si>
+  <si>
+    <t>0.987980</t>
+  </si>
+  <si>
+    <t>0.978927</t>
+  </si>
+  <si>
+    <t>0.961920</t>
+  </si>
+  <si>
+    <t>0.276116</t>
+  </si>
+  <si>
+    <t>0.266335</t>
+  </si>
+  <si>
+    <t>0.208099</t>
+  </si>
+  <si>
+    <t>0.974385</t>
+  </si>
+  <si>
+    <t>0.950891</t>
+  </si>
+  <si>
+    <t>0.907146</t>
+  </si>
+  <si>
+    <t>0.982901</t>
+  </si>
+  <si>
+    <t>0.972972</t>
+  </si>
+  <si>
+    <t>0.959109</t>
+  </si>
+  <si>
+    <t>0.415585</t>
+  </si>
+  <si>
+    <t>0.316902</t>
+  </si>
+  <si>
+    <t>0.193698</t>
+  </si>
+  <si>
+    <t>0.778008</t>
+  </si>
+  <si>
+    <t>0.636672</t>
+  </si>
+  <si>
+    <t>0.466418</t>
+  </si>
+  <si>
+    <t>0.936328</t>
+  </si>
+  <si>
+    <t>0.930809</t>
+  </si>
+  <si>
+    <t>0.884431</t>
+  </si>
+  <si>
+    <t>0.501572</t>
+  </si>
+  <si>
+    <t>0.483247</t>
+  </si>
+  <si>
+    <t>0.427582</t>
+  </si>
+  <si>
+    <t>0.978284</t>
+  </si>
+  <si>
+    <t>0.960680</t>
+  </si>
+  <si>
+    <t>0.925011</t>
+  </si>
+  <si>
+    <t>0.981759</t>
+  </si>
+  <si>
+    <t>0.971506</t>
+  </si>
+  <si>
+    <t>0.951628</t>
+  </si>
+  <si>
+    <t>0.829646</t>
+  </si>
+  <si>
+    <t>0.710227</t>
+  </si>
+  <si>
+    <t>0.551471</t>
+  </si>
+  <si>
+    <t>0.858124</t>
+  </si>
+  <si>
+    <t>0.750000</t>
+  </si>
+  <si>
+    <t>0.600962</t>
+  </si>
+  <si>
+    <t>0.981354</t>
+  </si>
+  <si>
+    <t>0.963391</t>
+  </si>
+  <si>
+    <t>0.937577</t>
+  </si>
+  <si>
+    <t>0.833333</t>
+  </si>
+  <si>
+    <t>0.715649</t>
+  </si>
+  <si>
+    <t>0.558036</t>
+  </si>
+  <si>
+    <t>0.870070</t>
+  </si>
+  <si>
+    <t>0.768443</t>
+  </si>
+  <si>
+    <t>0.625000</t>
+  </si>
+  <si>
+    <t>0.980712</t>
+  </si>
+  <si>
+    <t>0.962155</t>
+  </si>
+  <si>
+    <t>0.946073</t>
+  </si>
+  <si>
+    <t>0.811688</t>
+  </si>
+  <si>
+    <t>0.684307</t>
+  </si>
+  <si>
+    <t>0.520833</t>
+  </si>
+  <si>
+    <t>0.848416</t>
+  </si>
+  <si>
+    <t>0.735294</t>
+  </si>
+  <si>
+    <t>0.582298</t>
+  </si>
+  <si>
+    <t>0.979112</t>
+  </si>
+  <si>
+    <t>0.959079</t>
+  </si>
+  <si>
+    <t>0.937207</t>
+  </si>
+  <si>
+    <t>0.978474</t>
+  </si>
+  <si>
+    <t>0.957854</t>
+  </si>
+  <si>
+    <t>0.930411</t>
+  </si>
+  <si>
+    <t>0.791139</t>
+  </si>
+  <si>
+    <t>0.655594</t>
+  </si>
+  <si>
+    <t>0.488281</t>
+  </si>
+  <si>
+    <t>0.824176</t>
+  </si>
+  <si>
+    <t>0.699627</t>
+  </si>
+  <si>
+    <t>0.538793</t>
+  </si>
+  <si>
+    <t>0.977198</t>
+  </si>
+  <si>
+    <t>0.976880</t>
+  </si>
+  <si>
+    <t>0.954805</t>
+  </si>
+  <si>
     <t>RunOnCacheN</t>
   </si>
   <si>
@@ -1309,412 +1717,265 @@
     <t>3774000</t>
   </si>
   <si>
-    <t>CPURatio</t>
-  </si>
-  <si>
-    <t>0.381081</t>
-  </si>
-  <si>
-    <t>0.310378</t>
-  </si>
-  <si>
-    <t>0.289443</t>
-  </si>
-  <si>
-    <t>0.988020</t>
-  </si>
-  <si>
-    <t>0.976441</t>
-  </si>
-  <si>
-    <t>0.956514</t>
-  </si>
-  <si>
-    <t>0.990335</t>
-  </si>
-  <si>
-    <t>0.985218</t>
-  </si>
-  <si>
-    <t>0.976825</t>
-  </si>
-  <si>
-    <t>0.672867</t>
-  </si>
-  <si>
-    <t>0.654241</t>
-  </si>
-  <si>
-    <t>0.606011</t>
-  </si>
-  <si>
-    <t>0.982962</t>
-  </si>
-  <si>
-    <t>0.966495</t>
-  </si>
-  <si>
-    <t>0.932836</t>
-  </si>
-  <si>
-    <t>0.985746</t>
-  </si>
-  <si>
-    <t>0.972321</t>
-  </si>
-  <si>
-    <t>0.946540</t>
-  </si>
-  <si>
-    <t>0.194563</t>
-  </si>
-  <si>
-    <t>0.189521</t>
-  </si>
-  <si>
-    <t>0.180181</t>
-  </si>
-  <si>
-    <t>0.971110</t>
-  </si>
-  <si>
-    <t>0.952435</t>
-  </si>
-  <si>
-    <t>0.908902</t>
-  </si>
-  <si>
-    <t>0.980966</t>
-  </si>
-  <si>
-    <t>0.962707</t>
-  </si>
-  <si>
-    <t>0.939743</t>
-  </si>
-  <si>
-    <t>0.555600</t>
-  </si>
-  <si>
-    <t>0.485751</t>
-  </si>
-  <si>
-    <t>0.371178</t>
-  </si>
-  <si>
-    <t>0.902527</t>
-  </si>
-  <si>
-    <t>0.822368</t>
-  </si>
-  <si>
-    <t>0.697026</t>
-  </si>
-  <si>
-    <t>0.971188</t>
-  </si>
-  <si>
-    <t>0.970245</t>
-  </si>
-  <si>
-    <t>0.968365</t>
-  </si>
-  <si>
-    <t>0.439349</t>
-  </si>
-  <si>
-    <t>0.389370</t>
-  </si>
-  <si>
-    <t>0.289728</t>
-  </si>
-  <si>
-    <t>0.935367</t>
-  </si>
-  <si>
-    <t>0.878894</t>
-  </si>
-  <si>
-    <t>0.784201</t>
-  </si>
-  <si>
-    <t>0.964951</t>
-  </si>
-  <si>
-    <t>0.961606</t>
-  </si>
-  <si>
-    <t>0.934535</t>
-  </si>
-  <si>
-    <t>0.355240</t>
-  </si>
-  <si>
-    <t>0.348896</t>
-  </si>
-  <si>
-    <t>0.298544</t>
-  </si>
-  <si>
-    <t>0.985422</t>
-  </si>
-  <si>
-    <t>0.973248</t>
-  </si>
-  <si>
-    <t>0.949782</t>
-  </si>
-  <si>
-    <t>0.325141</t>
-  </si>
-  <si>
-    <t>0.318145</t>
-  </si>
-  <si>
-    <t>0.265272</t>
-  </si>
-  <si>
-    <t>0.984002</t>
-  </si>
-  <si>
-    <t>0.969981</t>
-  </si>
-  <si>
-    <t>0.943105</t>
-  </si>
-  <si>
-    <t>0.987327</t>
-  </si>
-  <si>
-    <t>0.980191</t>
-  </si>
-  <si>
-    <t>0.966224</t>
-  </si>
-  <si>
-    <t>0.454970</t>
-  </si>
-  <si>
-    <t>0.443995</t>
-  </si>
-  <si>
-    <t>0.390853</t>
-  </si>
-  <si>
-    <t>0.981656</t>
-  </si>
-  <si>
-    <t>0.965211</t>
-  </si>
-  <si>
-    <t>0.933920</t>
-  </si>
-  <si>
-    <t>0.987980</t>
-  </si>
-  <si>
-    <t>0.978927</t>
-  </si>
-  <si>
-    <t>0.961920</t>
-  </si>
-  <si>
-    <t>0.276116</t>
-  </si>
-  <si>
-    <t>0.266335</t>
-  </si>
-  <si>
-    <t>0.208099</t>
-  </si>
-  <si>
-    <t>0.974385</t>
-  </si>
-  <si>
-    <t>0.950891</t>
-  </si>
-  <si>
-    <t>0.907146</t>
-  </si>
-  <si>
-    <t>0.982901</t>
-  </si>
-  <si>
-    <t>0.972972</t>
-  </si>
-  <si>
-    <t>0.959109</t>
-  </si>
-  <si>
-    <t>0.415585</t>
-  </si>
-  <si>
-    <t>0.316902</t>
-  </si>
-  <si>
-    <t>0.193698</t>
-  </si>
-  <si>
-    <t>0.778008</t>
-  </si>
-  <si>
-    <t>0.636672</t>
-  </si>
-  <si>
-    <t>0.466418</t>
-  </si>
-  <si>
-    <t>0.936328</t>
-  </si>
-  <si>
-    <t>0.930809</t>
-  </si>
-  <si>
-    <t>0.884431</t>
-  </si>
-  <si>
-    <t>0.501572</t>
-  </si>
-  <si>
-    <t>0.483247</t>
-  </si>
-  <si>
-    <t>0.427582</t>
-  </si>
-  <si>
-    <t>0.978284</t>
-  </si>
-  <si>
-    <t>0.960680</t>
-  </si>
-  <si>
-    <t>0.925011</t>
-  </si>
-  <si>
-    <t>0.981759</t>
-  </si>
-  <si>
-    <t>0.971506</t>
-  </si>
-  <si>
-    <t>0.951628</t>
-  </si>
-  <si>
-    <t>0.829646</t>
-  </si>
-  <si>
-    <t>0.710227</t>
-  </si>
-  <si>
-    <t>0.551471</t>
-  </si>
-  <si>
-    <t>0.858124</t>
-  </si>
-  <si>
-    <t>0.750000</t>
-  </si>
-  <si>
-    <t>0.600962</t>
-  </si>
-  <si>
-    <t>0.981354</t>
-  </si>
-  <si>
-    <t>0.963391</t>
-  </si>
-  <si>
-    <t>0.937577</t>
-  </si>
-  <si>
-    <t>0.833333</t>
-  </si>
-  <si>
-    <t>0.715649</t>
-  </si>
-  <si>
-    <t>0.558036</t>
-  </si>
-  <si>
-    <t>0.870070</t>
-  </si>
-  <si>
-    <t>0.768443</t>
-  </si>
-  <si>
-    <t>0.625000</t>
-  </si>
-  <si>
-    <t>0.980712</t>
-  </si>
-  <si>
-    <t>0.962155</t>
-  </si>
-  <si>
-    <t>0.946073</t>
-  </si>
-  <si>
-    <t>0.811688</t>
-  </si>
-  <si>
-    <t>0.684307</t>
-  </si>
-  <si>
-    <t>0.520833</t>
-  </si>
-  <si>
-    <t>0.848416</t>
-  </si>
-  <si>
-    <t>0.735294</t>
-  </si>
-  <si>
-    <t>0.582298</t>
-  </si>
-  <si>
-    <t>0.979112</t>
-  </si>
-  <si>
-    <t>0.959079</t>
-  </si>
-  <si>
-    <t>0.937207</t>
-  </si>
-  <si>
-    <t>0.978474</t>
-  </si>
-  <si>
-    <t>0.957854</t>
-  </si>
-  <si>
-    <t>0.930411</t>
-  </si>
-  <si>
-    <t>0.791139</t>
-  </si>
-  <si>
-    <t>0.655594</t>
-  </si>
-  <si>
-    <t>0.488281</t>
-  </si>
-  <si>
-    <t>0.824176</t>
-  </si>
-  <si>
-    <t>0.699627</t>
-  </si>
-  <si>
-    <t>0.538793</t>
-  </si>
-  <si>
-    <t>0.977198</t>
-  </si>
-  <si>
-    <t>0.976880</t>
-  </si>
-  <si>
-    <t>0.954805</t>
+    <t>RunOnCache</t>
+  </si>
+  <si>
+    <t>88343410496</t>
+  </si>
+  <si>
+    <t>100318477546</t>
+  </si>
+  <si>
+    <t>98444931333</t>
+  </si>
+  <si>
+    <t>47365270295</t>
+  </si>
+  <si>
+    <t>47201103916</t>
+  </si>
+  <si>
+    <t>47301042129</t>
+  </si>
+  <si>
+    <t>59408646000</t>
+  </si>
+  <si>
+    <t>50785086000</t>
+  </si>
+  <si>
+    <t>21923557200</t>
+  </si>
+  <si>
+    <t>21898835280</t>
+  </si>
+  <si>
+    <t>22544695440</t>
+  </si>
+  <si>
+    <t>13487202000</t>
+  </si>
+  <si>
+    <t>19950522000</t>
+  </si>
+  <si>
+    <t>1428204822000</t>
+  </si>
+  <si>
+    <t>1798537644882</t>
+  </si>
+  <si>
+    <t>1800117018796</t>
+  </si>
+  <si>
+    <t>1789613594492</t>
+  </si>
+  <si>
+    <t>1777665462000</t>
+  </si>
+  <si>
+    <t>1728775356000</t>
+  </si>
+  <si>
+    <t>51057880552081</t>
+  </si>
+  <si>
+    <t>51094668899660</t>
+  </si>
+  <si>
+    <t>50932815219210</t>
+  </si>
+  <si>
+    <t>58374101832000</t>
+  </si>
+  <si>
+    <t>57403903308000</t>
+  </si>
+  <si>
+    <t>54087773106000</t>
+  </si>
+  <si>
+    <t>47472442512000</t>
+  </si>
+  <si>
+    <t>355570048260</t>
+  </si>
+  <si>
+    <t>354719090420</t>
+  </si>
+  <si>
+    <t>362262527700</t>
+  </si>
+  <si>
+    <t>315107310000</t>
+  </si>
+  <si>
+    <t>314178804000</t>
+  </si>
+  <si>
+    <t>318452490000</t>
+  </si>
+  <si>
+    <t>331688196952</t>
+  </si>
+  <si>
+    <t>242716916086</t>
+  </si>
+  <si>
+    <t>242708236428</t>
+  </si>
+  <si>
+    <t>243467890920</t>
+  </si>
+  <si>
+    <t>231737112000</t>
+  </si>
+  <si>
+    <t>287586778910</t>
+  </si>
+  <si>
+    <t>287576787240</t>
+  </si>
+  <si>
+    <t>287947487640</t>
+  </si>
+  <si>
+    <t>289116750000</t>
+  </si>
+  <si>
+    <t>294435270000</t>
+  </si>
+  <si>
+    <t>439003544830</t>
+  </si>
+  <si>
+    <t>438999885600</t>
+  </si>
+  <si>
+    <t>439091128400</t>
+  </si>
+  <si>
+    <t>441388842000</t>
+  </si>
+  <si>
+    <t>425992356000</t>
+  </si>
+  <si>
+    <t>434325036000</t>
+  </si>
+  <si>
+    <t>576215640770</t>
+  </si>
+  <si>
+    <t>576083580420</t>
+  </si>
+  <si>
+    <t>579788134010</t>
+  </si>
+  <si>
+    <t>559986798000</t>
+  </si>
+  <si>
+    <t>570323298000</t>
+  </si>
+  <si>
+    <t>589670058000</t>
+  </si>
+  <si>
+    <t>53552232397569</t>
+  </si>
+  <si>
+    <t>53737342374832</t>
+  </si>
+  <si>
+    <t>53290805915631</t>
+  </si>
+  <si>
+    <t>56181442824000</t>
+  </si>
+  <si>
+    <t>56472652062000</t>
+  </si>
+  <si>
+    <t>52984373172000</t>
+  </si>
+  <si>
+    <t>53197592010000</t>
+  </si>
+  <si>
+    <t>11508143760</t>
+  </si>
+  <si>
+    <t>11481937200</t>
+  </si>
+  <si>
+    <t>11886682960</t>
+  </si>
+  <si>
+    <t>14283546000</t>
+  </si>
+  <si>
+    <t>12602526000</t>
+  </si>
+  <si>
+    <t>54177936772992</t>
+  </si>
+  <si>
+    <t>58348356618000</t>
+  </si>
+  <si>
+    <t>44107493250000</t>
+  </si>
+  <si>
+    <t>40450993920000</t>
+  </si>
+  <si>
+    <t>60109841061168</t>
+  </si>
+  <si>
+    <t>62102603040000</t>
+  </si>
+  <si>
+    <t>56020945128000</t>
+  </si>
+  <si>
+    <t>42990716234000</t>
+  </si>
+  <si>
+    <t>66163928732288</t>
+  </si>
+  <si>
+    <t>69101611938000</t>
+  </si>
+  <si>
+    <t>53539710636000</t>
+  </si>
+  <si>
+    <t>50277101326000</t>
+  </si>
+  <si>
+    <t>66503657685168</t>
+  </si>
+  <si>
+    <t>68497119858000</t>
+  </si>
+  <si>
+    <t>58944265794000</t>
+  </si>
+  <si>
+    <t>52084697878911</t>
+  </si>
+  <si>
+    <t>72897495103472</t>
+  </si>
+  <si>
+    <t>77349348264000</t>
+  </si>
+  <si>
+    <t>60295174098000</t>
+  </si>
+  <si>
+    <t>54519182208000</t>
   </si>
   <si>
     <t>Cost</t>
@@ -2436,7 +2697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4506,10 +4767,10 @@
         <v>385</v>
       </c>
       <c r="K60" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L60" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4523,31 +4784,31 @@
         <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F61" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G61" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H61" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="I61" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="J61" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K61" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4561,31 +4822,31 @@
         <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E62" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F62" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="G62" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="H62" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="I62" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="J62" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K62" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="L62" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4599,31 +4860,31 @@
         <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E63" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F63" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G63" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H63" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="I63" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="J63" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="K63" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="L63" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4637,31 +4898,31 @@
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E64" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F64" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="G64" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="H64" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="I64" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="J64" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="K64" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="L64" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4675,31 +4936,31 @@
         <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="E65" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="G65" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="H65" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="I65" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="J65" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="K65" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="L65" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4713,31 +4974,31 @@
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="E66" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="F66" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="G66" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="H66" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="I66" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="J66" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4751,31 +5012,31 @@
         <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="E67" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="F67" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="G67" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="H67" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="I67" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="J67" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4789,31 +5050,31 @@
         <v>102</v>
       </c>
       <c r="D68" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="E68" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="F68" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="G68" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="H68" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="I68" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="J68" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="K68" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="L68" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4827,31 +5088,31 @@
         <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="E69" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F69" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="G69" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="H69" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="I69" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="J69" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="K69" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="L69" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4865,31 +5126,31 @@
         <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="E70" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="F70" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="G70" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="H70" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="I70" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="J70" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="K70" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="L70" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4903,31 +5164,31 @@
         <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="E71" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="F71" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="G71" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="H71" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="I71" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="J71" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="K71" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="L71" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4941,31 +5202,31 @@
         <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="E72" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="G72" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="H72" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="I72" t="s">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="J72" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="K72" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="L72" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4979,31 +5240,31 @@
         <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="E73" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="F73" t="s">
-        <v>420</v>
+        <v>495</v>
       </c>
       <c r="G73" t="s">
-        <v>421</v>
+        <v>496</v>
       </c>
       <c r="H73" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="I73" t="s">
-        <v>421</v>
+        <v>498</v>
       </c>
       <c r="J73" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="K73" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="L73" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -5017,31 +5278,31 @@
         <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="E74" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="F74" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="G74" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="H74" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="I74" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="J74" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="K74" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
       <c r="L74" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -5055,36 +5316,36 @@
         <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="E75" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="F75" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
       <c r="G75" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="H75" t="s">
-        <v>428</v>
+        <v>509</v>
       </c>
       <c r="I75" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
       <c r="J75" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="K75" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="L75" t="s">
-        <v>430</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -5145,31 +5406,31 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="E79" t="s">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="F79" t="s">
-        <v>434</v>
+        <v>517</v>
       </c>
       <c r="G79" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="H79" t="s">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="I79" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="J79" t="s">
-        <v>438</v>
+        <v>521</v>
       </c>
       <c r="K79" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
       <c r="L79" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5183,31 +5444,31 @@
         <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
       <c r="E80" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="F80" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="G80" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="H80" t="s">
-        <v>445</v>
+        <v>522</v>
       </c>
       <c r="I80" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="J80" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="K80" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="L80" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5221,31 +5482,31 @@
         <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="E81" t="s">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="F81" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="G81" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="H81" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="I81" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="J81" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="K81" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="L81" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5259,31 +5520,31 @@
         <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="E82" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="F82" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="G82" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="H82" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="I82" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="J82" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="K82" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="L82" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5297,31 +5558,31 @@
         <v>57</v>
       </c>
       <c r="D83" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="E83" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="F83" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="G83" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="H83" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="I83" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="J83" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="K83" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="L83" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5335,31 +5596,31 @@
         <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="E84" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="F84" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="G84" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="H84" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="I84" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="J84" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="K84" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="L84" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5373,31 +5634,31 @@
         <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="E85" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="F85" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="G85" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="H85" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="I85" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="J85" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="K85" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="L85" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5411,31 +5672,31 @@
         <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="E86" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="F86" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="G86" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="H86" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="I86" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="J86" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="K86" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="L86" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5449,31 +5710,31 @@
         <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="E87" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="F87" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="G87" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="H87" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="I87" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="J87" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="K87" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="L87" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5487,31 +5748,31 @@
         <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="E88" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="F88" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="G88" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="H88" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="I88" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="J88" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K88" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="L88" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5525,31 +5786,31 @@
         <v>126</v>
       </c>
       <c r="D89" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="E89" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="F89" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="G89" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="H89" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="I89" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="J89" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="K89" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="L89" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5563,31 +5824,31 @@
         <v>138</v>
       </c>
       <c r="D90" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="E90" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="F90" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="G90" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="H90" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="I90" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="J90" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="K90" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="L90" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5601,31 +5862,31 @@
         <v>149</v>
       </c>
       <c r="D91" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="E91" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="F91" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G91" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="H91" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="I91" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="J91" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K91" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="L91" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5639,31 +5900,31 @@
         <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="E92" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="F92" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="G92" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="H92" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="I92" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="J92" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K92" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="L92" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5677,31 +5938,31 @@
         <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E93" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F93" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G93" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H93" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I93" t="s">
         <v>551</v>
       </c>
       <c r="J93" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K93" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="L93" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5715,28 +5976,28 @@
         <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E94" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F94" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G94" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H94" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I94" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J94" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K94" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L94" t="s">
         <v>566</v>
@@ -5814,19 +6075,19 @@
         <v>570</v>
       </c>
       <c r="G98" t="s">
-        <v>68</v>
+        <v>571</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I98" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J98" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K98" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L98" t="s">
         <v>575</v>
@@ -5849,25 +6110,25 @@
         <v>577</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>578</v>
       </c>
       <c r="G99" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H99" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I99" t="s">
         <v>579</v>
       </c>
       <c r="J99" t="s">
-        <v>21</v>
+        <v>580</v>
       </c>
       <c r="K99" t="s">
         <v>580</v>
       </c>
       <c r="L99" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5881,31 +6142,31 @@
         <v>33</v>
       </c>
       <c r="D100" t="s">
+        <v>581</v>
+      </c>
+      <c r="E100" t="s">
+        <v>581</v>
+      </c>
+      <c r="F100" t="s">
+        <v>581</v>
+      </c>
+      <c r="G100" t="s">
         <v>582</v>
       </c>
-      <c r="E100" t="s">
+      <c r="H100" t="s">
         <v>583</v>
       </c>
-      <c r="F100" t="s">
+      <c r="I100" t="s">
         <v>584</v>
       </c>
-      <c r="G100" t="s">
+      <c r="J100" t="s">
         <v>585</v>
       </c>
-      <c r="H100" t="s">
+      <c r="K100" t="s">
+        <v>585</v>
+      </c>
+      <c r="L100" t="s">
         <v>586</v>
-      </c>
-      <c r="I100" t="s">
-        <v>587</v>
-      </c>
-      <c r="J100" t="s">
-        <v>588</v>
-      </c>
-      <c r="K100" t="s">
-        <v>589</v>
-      </c>
-      <c r="L100" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5919,31 +6180,31 @@
         <v>45</v>
       </c>
       <c r="D101" t="s">
+        <v>587</v>
+      </c>
+      <c r="E101" t="s">
+        <v>588</v>
+      </c>
+      <c r="F101" t="s">
+        <v>589</v>
+      </c>
+      <c r="G101" t="s">
+        <v>590</v>
+      </c>
+      <c r="H101" t="s">
+        <v>590</v>
+      </c>
+      <c r="I101" t="s">
+        <v>590</v>
+      </c>
+      <c r="J101" t="s">
         <v>591</v>
       </c>
-      <c r="E101" t="s">
+      <c r="K101" t="s">
         <v>592</v>
       </c>
-      <c r="F101" t="s">
+      <c r="L101" t="s">
         <v>593</v>
-      </c>
-      <c r="G101" t="s">
-        <v>594</v>
-      </c>
-      <c r="H101" t="s">
-        <v>595</v>
-      </c>
-      <c r="I101" t="s">
-        <v>596</v>
-      </c>
-      <c r="J101" t="s">
-        <v>597</v>
-      </c>
-      <c r="K101" t="s">
-        <v>598</v>
-      </c>
-      <c r="L101" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5957,31 +6218,31 @@
         <v>57</v>
       </c>
       <c r="D102" t="s">
+        <v>594</v>
+      </c>
+      <c r="E102" t="s">
+        <v>595</v>
+      </c>
+      <c r="F102" t="s">
+        <v>596</v>
+      </c>
+      <c r="G102" t="s">
+        <v>597</v>
+      </c>
+      <c r="H102" t="s">
+        <v>597</v>
+      </c>
+      <c r="I102" t="s">
+        <v>597</v>
+      </c>
+      <c r="J102" t="s">
+        <v>598</v>
+      </c>
+      <c r="K102" t="s">
+        <v>599</v>
+      </c>
+      <c r="L102" t="s">
         <v>600</v>
-      </c>
-      <c r="E102" t="s">
-        <v>601</v>
-      </c>
-      <c r="F102" t="s">
-        <v>602</v>
-      </c>
-      <c r="G102" t="s">
-        <v>603</v>
-      </c>
-      <c r="H102" t="s">
-        <v>604</v>
-      </c>
-      <c r="I102" t="s">
-        <v>605</v>
-      </c>
-      <c r="J102" t="s">
-        <v>606</v>
-      </c>
-      <c r="K102" t="s">
-        <v>607</v>
-      </c>
-      <c r="L102" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5995,31 +6256,31 @@
         <v>69</v>
       </c>
       <c r="D103" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E103" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F103" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G103" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H103" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="I103" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="J103" t="s">
-        <v>126</v>
+        <v>604</v>
       </c>
       <c r="K103" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="L103" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -6033,31 +6294,31 @@
         <v>78</v>
       </c>
       <c r="D104" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="E104" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="F104" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G104" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H104" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="I104" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J104" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="K104" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="L104" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6071,31 +6332,31 @@
         <v>90</v>
       </c>
       <c r="D105" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E105" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="F105" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="G105" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H105" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="I105" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="J105" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="K105" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="L105" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6109,31 +6370,31 @@
         <v>102</v>
       </c>
       <c r="D106" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="E106" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="F106" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G106" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="H106" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="I106" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="J106" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="K106" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="L106" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6147,31 +6408,31 @@
         <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="E107" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="F107" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="G107" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="H107" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="I107" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="J107" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="K107" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="L107" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6185,31 +6446,31 @@
         <v>126</v>
       </c>
       <c r="D108" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="E108" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F108" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="G108" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="I108" t="s">
-        <v>578</v>
+        <v>632</v>
       </c>
       <c r="J108" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="K108" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="L108" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6223,31 +6484,31 @@
         <v>138</v>
       </c>
       <c r="D109" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="E109" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="F109" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G109" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H109" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="I109" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="J109" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="K109" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="L109" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6261,31 +6522,31 @@
         <v>149</v>
       </c>
       <c r="D110" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="E110" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="F110" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="G110" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="H110" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="I110" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="J110" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="K110" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="L110" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6299,31 +6560,31 @@
         <v>161</v>
       </c>
       <c r="D111" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="E111" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="F111" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G111" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="H111" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="I111" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="J111" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="K111" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="L111" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6337,31 +6598,31 @@
         <v>173</v>
       </c>
       <c r="D112" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="E112" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
       <c r="F112" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="G112" t="s">
-        <v>682</v>
+        <v>647</v>
       </c>
       <c r="H112" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
       <c r="I112" t="s">
-        <v>684</v>
+        <v>647</v>
       </c>
       <c r="J112" t="s">
-        <v>685</v>
+        <v>648</v>
       </c>
       <c r="K112" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="L112" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6375,31 +6636,691 @@
         <v>185</v>
       </c>
       <c r="D113" t="s">
+        <v>650</v>
+      </c>
+      <c r="E113" t="s">
+        <v>650</v>
+      </c>
+      <c r="F113" t="s">
+        <v>650</v>
+      </c>
+      <c r="G113" t="s">
+        <v>651</v>
+      </c>
+      <c r="H113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I113" t="s">
+        <v>651</v>
+      </c>
+      <c r="J113" t="s">
+        <v>652</v>
+      </c>
+      <c r="K113" t="s">
+        <v>653</v>
+      </c>
+      <c r="L113" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>654</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>5</v>
+      </c>
+      <c r="J115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>32</v>
+      </c>
+      <c r="F116">
+        <v>64</v>
+      </c>
+      <c r="G116">
+        <v>16</v>
+      </c>
+      <c r="H116">
+        <v>32</v>
+      </c>
+      <c r="I116">
+        <v>64</v>
+      </c>
+      <c r="J116">
+        <v>16</v>
+      </c>
+      <c r="K116">
+        <v>32</v>
+      </c>
+      <c r="L116">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>655</v>
+      </c>
+      <c r="E117" t="s">
+        <v>656</v>
+      </c>
+      <c r="F117" t="s">
+        <v>657</v>
+      </c>
+      <c r="G117" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" t="s">
+        <v>658</v>
+      </c>
+      <c r="I117" t="s">
+        <v>659</v>
+      </c>
+      <c r="J117" t="s">
+        <v>660</v>
+      </c>
+      <c r="K117" t="s">
+        <v>661</v>
+      </c>
+      <c r="L117" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>663</v>
+      </c>
+      <c r="E118" t="s">
+        <v>664</v>
+      </c>
+      <c r="F118" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" t="s">
+        <v>665</v>
+      </c>
+      <c r="H118" t="s">
+        <v>665</v>
+      </c>
+      <c r="I118" t="s">
+        <v>666</v>
+      </c>
+      <c r="J118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K118" t="s">
+        <v>667</v>
+      </c>
+      <c r="L118" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" t="s">
+        <v>669</v>
+      </c>
+      <c r="E119" t="s">
+        <v>670</v>
+      </c>
+      <c r="F119" t="s">
+        <v>671</v>
+      </c>
+      <c r="G119" t="s">
+        <v>672</v>
+      </c>
+      <c r="H119" t="s">
+        <v>673</v>
+      </c>
+      <c r="I119" t="s">
+        <v>674</v>
+      </c>
+      <c r="J119" t="s">
+        <v>675</v>
+      </c>
+      <c r="K119" t="s">
+        <v>676</v>
+      </c>
+      <c r="L119" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>678</v>
+      </c>
+      <c r="E120" t="s">
+        <v>679</v>
+      </c>
+      <c r="F120" t="s">
+        <v>680</v>
+      </c>
+      <c r="G120" t="s">
+        <v>681</v>
+      </c>
+      <c r="H120" t="s">
+        <v>682</v>
+      </c>
+      <c r="I120" t="s">
+        <v>683</v>
+      </c>
+      <c r="J120" t="s">
+        <v>684</v>
+      </c>
+      <c r="K120" t="s">
+        <v>685</v>
+      </c>
+      <c r="L120" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" t="s">
+        <v>687</v>
+      </c>
+      <c r="E121" t="s">
         <v>688</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F121" t="s">
         <v>689</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G121" t="s">
         <v>690</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H121" t="s">
         <v>691</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I121" t="s">
         <v>692</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J121" t="s">
         <v>693</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K121" t="s">
         <v>694</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L121" t="s">
         <v>695</v>
       </c>
-      <c r="L113" t="s">
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" t="s">
         <v>696</v>
+      </c>
+      <c r="E122" t="s">
+        <v>697</v>
+      </c>
+      <c r="F122" t="s">
+        <v>698</v>
+      </c>
+      <c r="G122" t="s">
+        <v>699</v>
+      </c>
+      <c r="H122" t="s">
+        <v>700</v>
+      </c>
+      <c r="I122" t="s">
+        <v>701</v>
+      </c>
+      <c r="J122" t="s">
+        <v>126</v>
+      </c>
+      <c r="K122" t="s">
+        <v>702</v>
+      </c>
+      <c r="L122" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" t="s">
+        <v>78</v>
+      </c>
+      <c r="D123" t="s">
+        <v>704</v>
+      </c>
+      <c r="E123" t="s">
+        <v>705</v>
+      </c>
+      <c r="F123" t="s">
+        <v>706</v>
+      </c>
+      <c r="G123" t="s">
+        <v>699</v>
+      </c>
+      <c r="H123" t="s">
+        <v>707</v>
+      </c>
+      <c r="I123" t="s">
+        <v>699</v>
+      </c>
+      <c r="J123" t="s">
+        <v>708</v>
+      </c>
+      <c r="K123" t="s">
+        <v>709</v>
+      </c>
+      <c r="L123" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" t="s">
+        <v>90</v>
+      </c>
+      <c r="D124" t="s">
+        <v>711</v>
+      </c>
+      <c r="E124" t="s">
+        <v>711</v>
+      </c>
+      <c r="F124" t="s">
+        <v>712</v>
+      </c>
+      <c r="G124" t="s">
+        <v>713</v>
+      </c>
+      <c r="H124" t="s">
+        <v>714</v>
+      </c>
+      <c r="I124" t="s">
+        <v>715</v>
+      </c>
+      <c r="J124" t="s">
+        <v>716</v>
+      </c>
+      <c r="K124" t="s">
+        <v>717</v>
+      </c>
+      <c r="L124" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B125" t="s">
+        <v>101</v>
+      </c>
+      <c r="C125" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" t="s">
+        <v>719</v>
+      </c>
+      <c r="E125" t="s">
+        <v>720</v>
+      </c>
+      <c r="F125" t="s">
+        <v>721</v>
+      </c>
+      <c r="G125" t="s">
+        <v>722</v>
+      </c>
+      <c r="H125" t="s">
+        <v>723</v>
+      </c>
+      <c r="I125" t="s">
+        <v>724</v>
+      </c>
+      <c r="J125" t="s">
+        <v>725</v>
+      </c>
+      <c r="K125" t="s">
+        <v>655</v>
+      </c>
+      <c r="L125" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126" t="s">
+        <v>727</v>
+      </c>
+      <c r="E126" t="s">
+        <v>728</v>
+      </c>
+      <c r="F126" t="s">
+        <v>729</v>
+      </c>
+      <c r="G126" t="s">
+        <v>730</v>
+      </c>
+      <c r="H126" t="s">
+        <v>731</v>
+      </c>
+      <c r="I126" t="s">
+        <v>732</v>
+      </c>
+      <c r="J126" t="s">
+        <v>733</v>
+      </c>
+      <c r="K126" t="s">
+        <v>734</v>
+      </c>
+      <c r="L126" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" t="s">
+        <v>736</v>
+      </c>
+      <c r="E127" t="s">
+        <v>737</v>
+      </c>
+      <c r="F127" t="s">
+        <v>738</v>
+      </c>
+      <c r="G127" t="s">
+        <v>666</v>
+      </c>
+      <c r="H127" t="s">
+        <v>666</v>
+      </c>
+      <c r="I127" t="s">
+        <v>665</v>
+      </c>
+      <c r="J127" t="s">
+        <v>739</v>
+      </c>
+      <c r="K127" t="s">
+        <v>740</v>
+      </c>
+      <c r="L127" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" t="s">
+        <v>742</v>
+      </c>
+      <c r="E128" t="s">
+        <v>743</v>
+      </c>
+      <c r="F128" t="s">
+        <v>744</v>
+      </c>
+      <c r="G128" t="s">
+        <v>745</v>
+      </c>
+      <c r="H128" t="s">
+        <v>746</v>
+      </c>
+      <c r="I128" t="s">
+        <v>747</v>
+      </c>
+      <c r="J128" t="s">
+        <v>748</v>
+      </c>
+      <c r="K128" t="s">
+        <v>749</v>
+      </c>
+      <c r="L128" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>149</v>
+      </c>
+      <c r="D129" t="s">
+        <v>751</v>
+      </c>
+      <c r="E129" t="s">
+        <v>752</v>
+      </c>
+      <c r="F129" t="s">
+        <v>753</v>
+      </c>
+      <c r="G129" t="s">
+        <v>754</v>
+      </c>
+      <c r="H129" t="s">
+        <v>754</v>
+      </c>
+      <c r="I129" t="s">
+        <v>755</v>
+      </c>
+      <c r="J129" t="s">
+        <v>756</v>
+      </c>
+      <c r="K129" t="s">
+        <v>757</v>
+      </c>
+      <c r="L129" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" t="s">
+        <v>759</v>
+      </c>
+      <c r="E130" t="s">
+        <v>760</v>
+      </c>
+      <c r="F130" t="s">
+        <v>761</v>
+      </c>
+      <c r="G130" t="s">
+        <v>762</v>
+      </c>
+      <c r="H130" t="s">
+        <v>743</v>
+      </c>
+      <c r="I130" t="s">
+        <v>763</v>
+      </c>
+      <c r="J130" t="s">
+        <v>764</v>
+      </c>
+      <c r="K130" t="s">
+        <v>765</v>
+      </c>
+      <c r="L130" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" t="s">
+        <v>760</v>
+      </c>
+      <c r="E131" t="s">
+        <v>767</v>
+      </c>
+      <c r="F131" t="s">
+        <v>768</v>
+      </c>
+      <c r="G131" t="s">
+        <v>769</v>
+      </c>
+      <c r="H131" t="s">
+        <v>770</v>
+      </c>
+      <c r="I131" t="s">
+        <v>771</v>
+      </c>
+      <c r="J131" t="s">
+        <v>772</v>
+      </c>
+      <c r="K131" t="s">
+        <v>773</v>
+      </c>
+      <c r="L131" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" t="s">
+        <v>183</v>
+      </c>
+      <c r="B132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" t="s">
+        <v>775</v>
+      </c>
+      <c r="E132" t="s">
+        <v>776</v>
+      </c>
+      <c r="F132" t="s">
+        <v>777</v>
+      </c>
+      <c r="G132" t="s">
+        <v>778</v>
+      </c>
+      <c r="H132" t="s">
+        <v>779</v>
+      </c>
+      <c r="I132" t="s">
+        <v>780</v>
+      </c>
+      <c r="J132" t="s">
+        <v>781</v>
+      </c>
+      <c r="K132" t="s">
+        <v>782</v>
+      </c>
+      <c r="L132" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
